--- a/cbrunner/Parameters/Parameters_gromo_gg2.xlsx
+++ b/cbrunner/Parameters/Parameters_gromo_gg2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,10 +451,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.30373518091499</v>
+        <v>1.306954036778893</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02269999006414892</v>
+        <v>0.02163449633064657</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>264.444166104921</v>
+        <v>260.1389572903006</v>
       </c>
       <c r="C3" t="n">
-        <v>18.9168823568823</v>
+        <v>17.73488149735281</v>
       </c>
       <c r="D3" t="n">
         <v>7</v>
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>375.126095284578</v>
+        <v>364.129256442499</v>
       </c>
       <c r="C4" t="n">
-        <v>26.26690955971127</v>
+        <v>24.59230089924136</v>
       </c>
       <c r="D4" t="n">
         <v>7</v>
@@ -499,10 +499,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>420.324210130581</v>
+        <v>399.5927311518733</v>
       </c>
       <c r="C5" t="n">
-        <v>46.99641538880778</v>
+        <v>43.08557206254108</v>
       </c>
       <c r="D5" t="n">
         <v>11</v>
@@ -515,10 +515,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>592.627874986204</v>
+        <v>587.6119747284199</v>
       </c>
       <c r="C6" t="n">
-        <v>34.75217536577178</v>
+        <v>33.35573736209129</v>
       </c>
       <c r="D6" t="n">
         <v>6</v>
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>341.6988986451366</v>
+        <v>335.8170403733081</v>
       </c>
       <c r="C7" t="n">
-        <v>23.45763796073597</v>
+        <v>22.22711515867399</v>
       </c>
       <c r="D7" t="n">
         <v>7</v>
@@ -547,10 +547,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>569.9017941570987</v>
+        <v>557.7127850839163</v>
       </c>
       <c r="C8" t="n">
-        <v>25.00799594142637</v>
+        <v>23.46482874637478</v>
       </c>
       <c r="D8" t="n">
         <v>4</v>
@@ -563,13 +563,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>532.3779405058826</v>
+        <v>521.3766586189533</v>
       </c>
       <c r="C9" t="n">
-        <v>78.71898329141456</v>
+        <v>74.34026625461064</v>
       </c>
       <c r="D9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -579,13 +579,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>611.100343521878</v>
+        <v>595.5263281526136</v>
       </c>
       <c r="C10" t="n">
-        <v>60.47020607957032</v>
+        <v>56.38971231687217</v>
       </c>
       <c r="D10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -595,13 +595,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>416.8340115326542</v>
+        <v>384.3863090414211</v>
       </c>
       <c r="C11" t="n">
-        <v>103.9122866947654</v>
+        <v>91.88565619739249</v>
       </c>
       <c r="D11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
@@ -611,13 +611,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>772.4769353886464</v>
+        <v>680.9171699389854</v>
       </c>
       <c r="C12" t="n">
-        <v>158.192275970241</v>
+        <v>128.9503896623935</v>
       </c>
       <c r="D12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -627,10 +627,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>401.6983046372907</v>
+        <v>371.8398627553892</v>
       </c>
       <c r="C13" t="n">
-        <v>67.43351827174945</v>
+        <v>61.99178050608565</v>
       </c>
       <c r="D13" t="n">
         <v>17</v>
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>677.0688174412065</v>
+        <v>668.2259509088207</v>
       </c>
       <c r="C14" t="n">
-        <v>32.95421845496947</v>
+        <v>31.18147504434866</v>
       </c>
       <c r="D14" t="n">
         <v>5</v>
@@ -659,13 +659,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>543.2983976493698</v>
+        <v>529.7584471838284</v>
       </c>
       <c r="C15" t="n">
-        <v>85.50001638442805</v>
+        <v>80.65114178723503</v>
       </c>
       <c r="D15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -675,10 +675,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>339.0520206789049</v>
+        <v>329.258740270115</v>
       </c>
       <c r="C16" t="n">
-        <v>25.02447300393376</v>
+        <v>23.48877669930289</v>
       </c>
       <c r="D16" t="n">
         <v>7</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>74.47308271630135</v>
+        <v>82.27359328721792</v>
       </c>
       <c r="C17" t="n">
-        <v>17.32656246477319</v>
+        <v>16.20836344255331</v>
       </c>
       <c r="D17" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>76.06712121071332</v>
+        <v>78.19892705351505</v>
       </c>
       <c r="C18" t="n">
-        <v>25.14747615420125</v>
+        <v>24.00104786536935</v>
       </c>
       <c r="D18" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
@@ -723,77 +723,77 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-63.23345874258505</v>
+        <v>-65.70619467813447</v>
       </c>
       <c r="C19" t="n">
-        <v>25.37383975718346</v>
+        <v>24.20910639056002</v>
       </c>
       <c r="D19" t="n">
-        <v>-40</v>
+        <v>-37</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>dab1</t>
+          <t>Dab1</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-53.77777086077415</v>
+        <v>-58.37359824532616</v>
       </c>
       <c r="C20" t="n">
-        <v>7.320872249129964</v>
+        <v>7.019188609966604</v>
       </c>
       <c r="D20" t="n">
-        <v>-14</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>dad1</t>
+          <t>Dad1</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-33.74391514604635</v>
+        <v>-34.21987358136757</v>
       </c>
       <c r="C21" t="n">
-        <v>9.515561997210661</v>
+        <v>9.095172490211617</v>
       </c>
       <c r="D21" t="n">
-        <v>-28</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>daf1</t>
+          <t>Daf1</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-17.62437952250892</v>
+        <v>-19.11895274457422</v>
       </c>
       <c r="C22" t="n">
-        <v>17.84811942946322</v>
+        <v>16.96895458799872</v>
       </c>
       <c r="D22" t="n">
-        <v>-101</v>
+        <v>-89</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>dap1</t>
+          <t>Dap1</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-4.180040745055537</v>
+        <v>-5.229088757334369</v>
       </c>
       <c r="C23" t="n">
-        <v>5.442341811208269</v>
+        <v>5.205610489983474</v>
       </c>
       <c r="D23" t="n">
-        <v>-130</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="24">
@@ -803,10 +803,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>84.95488252431521</v>
+        <v>84.76222656182199</v>
       </c>
       <c r="C24" t="n">
-        <v>4.303865487342621</v>
+        <v>4.115290222684277</v>
       </c>
       <c r="D24" t="n">
         <v>5</v>
@@ -819,10 +819,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-59.08855333621449</v>
+        <v>-59.54392126449343</v>
       </c>
       <c r="C25" t="n">
-        <v>3.140653087466663</v>
+        <v>3.033029388120751</v>
       </c>
       <c r="D25" t="n">
         <v>-5</v>
@@ -835,13 +835,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-11.24677777895602</v>
+        <v>-10.33871591393067</v>
       </c>
       <c r="C26" t="n">
-        <v>3.302439780937817</v>
+        <v>3.122897595330535</v>
       </c>
       <c r="D26" t="n">
-        <v>-29</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="27">
@@ -851,106 +851,106 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-8.132261441373613</v>
+        <v>-8.171625981168882</v>
       </c>
       <c r="C27" t="n">
-        <v>2.364361375077068</v>
+        <v>1.863056874285274</v>
       </c>
       <c r="D27" t="n">
-        <v>-29</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>TnTa1</t>
+          <t>Nd1</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.980308486727335</v>
+        <v>12.33804421686293</v>
       </c>
       <c r="C28" t="n">
-        <v>1.892171258857324</v>
+        <v>2.406687982538576</v>
       </c>
       <c r="D28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>WnWa1</t>
+          <t>Ca1</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.5311246843177457</v>
+        <v>11.60630675774877</v>
       </c>
       <c r="C29" t="n">
-        <v>1.96869079935112</v>
+        <v>3.392225807030725</v>
       </c>
       <c r="D29" t="n">
-        <v>371</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Nd1</t>
+          <t>pl2</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>11.90676796731068</v>
+        <v>0.0100814970693411</v>
       </c>
       <c r="C30" t="n">
-        <v>2.542757244988162</v>
+        <v>0.0005088122969302305</v>
       </c>
       <c r="D30" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Ca1</t>
+          <t>sw2</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>13.66011668930989</v>
+        <v>0.007723979107208243</v>
       </c>
       <c r="C31" t="n">
-        <v>3.630999382495692</v>
+        <v>0.0005754115116818194</v>
       </c>
       <c r="D31" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>NdCa1</t>
+          <t>bl2</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1.05226921421198</v>
+        <v>0.005204699320461893</v>
       </c>
       <c r="C32" t="n">
-        <v>2.172281948139426</v>
+        <v>0.0006798057384867189</v>
       </c>
       <c r="D32" t="n">
-        <v>-206</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>pl2</t>
+          <t>fdc2</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01036581500726032</v>
+        <v>0.006291186713889747</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0005417918826085508</v>
+        <v>0.0003353041201616275</v>
       </c>
       <c r="D33" t="n">
         <v>5</v>
@@ -959,208 +959,160 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>sw2</t>
+          <t>fdi2</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.00767939959485616</v>
+        <v>0.007016150546748841</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0006035703756893013</v>
+        <v>0.0004468873806440881</v>
       </c>
       <c r="D34" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>bl2</t>
+          <t>hwc2</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.005073259104870217</v>
+        <v>0.007928992742881816</v>
       </c>
       <c r="C35" t="n">
-        <v>0.000702129387232877</v>
+        <v>0.000304325729119211</v>
       </c>
       <c r="D35" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>fdc2</t>
+          <t>hwi2</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.006368061302688828</v>
+        <v>0.005778370770831803</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0003563767412361068</v>
+        <v>0.0008618043860634848</v>
       </c>
       <c r="D36" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>fdi2</t>
+          <t>cw2</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.007094984885320375</v>
+        <v>0.004442090100281973</v>
       </c>
       <c r="C37" t="n">
-        <v>0.000476467835599483</v>
+        <v>0.0003673161109539735</v>
       </c>
       <c r="D37" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>hwc2</t>
+          <t>se2</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.007925259788431019</v>
+        <v>0.004914270159335286</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0003200560895849709</v>
+        <v>0.001245158678497313</v>
       </c>
       <c r="D38" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>hwi2</t>
+          <t>at2</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.005754934786058376</v>
+        <v>0.003858551031099256</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0009069708656236004</v>
+        <v>0.0007345483914716182</v>
       </c>
       <c r="D39" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>cw2</t>
+          <t>sb2</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.004386696102505281</v>
+        <v>0.008654204042875516</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0003843539287733713</v>
+        <v>0.00300375340888287</v>
       </c>
       <c r="D40" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>se2</t>
+          <t>ss2</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.004698119628713701</v>
+        <v>0.007578816933186185</v>
       </c>
       <c r="C41" t="n">
-        <v>0.001286393229990438</v>
+        <v>0.0003452256580055829</v>
       </c>
       <c r="D41" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>at2</t>
+          <t>ae2</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.003448055777307032</v>
+        <v>0.009834194389605309</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0007033389707633779</v>
+        <v>0.001221246785724033</v>
       </c>
       <c r="D42" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>sb2</t>
+          <t>o2</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.008220090251591679</v>
+        <v>0.007613351898572714</v>
       </c>
       <c r="C43" t="n">
-        <v>0.002839508031089633</v>
+        <v>0.0004323407327558458</v>
       </c>
       <c r="D43" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>ss2</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>0.007577508358463774</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.0003628179133362539</v>
-      </c>
-      <c r="D44" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>ae2</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>0.009673987205340654</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.00125343645223569</v>
-      </c>
-      <c r="D45" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>o2</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>0.007598127607028483</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.0004539141646880315</v>
-      </c>
-      <c r="D46" t="n">
         <v>6</v>
       </c>
     </row>
